--- a/medicine/Sexualité et sexologie/Le_Pensionnat_des_jeunes_filles_perverses/Le_Pensionnat_des_jeunes_filles_perverses.xlsx
+++ b/medicine/Sexualité et sexologie/Le_Pensionnat_des_jeunes_filles_perverses/Le_Pensionnat_des_jeunes_filles_perverses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Pensionnat des jeunes filles perverses (恐怖女子高校 暴行リンチ教室, Kyōfu joshikōkō: bōkō rinchi kyōshitsu?) est un film japonais réalisé par Norifumi Suzuki, sorti en 1973. Il s'agit du premier film comportant une scène omorashi à bénéficier d'une large audience.
-En France il a été distribué dans une version aux dialogues détournés pour lui donner un message politique (dans la lignée de La dialectique peut-elle casser des briques ?), avec des inserts de plans de sexes masculins et féminins complétant les ellipses du film original[1], baptisée Les Filles de Kamaré : une petite culotte pour l'été[2].
+En France il a été distribué dans une version aux dialogues détournés pour lui donner un message politique (dans la lignée de La dialectique peut-elle casser des briques ?), avec des inserts de plans de sexes masculins et féminins complétant les ellipses du film original, baptisée Les Filles de Kamaré : une petite culotte pour l'été.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film commence par une scène de torture. Des collégiennes cachées derrière un masque chirurgical, les bouches fardées, éclatantes d'un rouge vif, torturent à mort une jeune femme.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Le Pensionnat des jeunes filles perverses
 Titres français alternatifs : Les Filles de Kamaré / Une petite culotte pour l'été
@@ -556,10 +572,10 @@
 Langue originale : japonais
 Format : couleur - 2,35:1 - Mono
 Genre : film érotique
-Durée : 88 minutes[3]
+Durée : 88 minutes
 Dates de sortie :
-Japon : 31 mars 1973[3]
-France : 11 décembre 1974[4] (version détournée)
+Japon : 31 mars 1973
+France : 11 décembre 1974 (version détournée)
 Interdit aux moins de 16 ans[Où ?]</t>
         </is>
       </c>
@@ -588,7 +604,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Miki Sugimoto : Noriko
 Reiko Ike : Maki Takigawa
